--- a/data/pca/factorExposure/factorExposure_2011-04-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.006987306515480656</v>
+        <v>-0.0115122343307302</v>
       </c>
       <c r="C2">
-        <v>-0.0006728309771343308</v>
+        <v>0.001978049953940269</v>
       </c>
       <c r="D2">
-        <v>0.05052546066340642</v>
+        <v>0.02804874463645052</v>
       </c>
       <c r="E2">
-        <v>0.001996899611883114</v>
+        <v>0.01522091395397547</v>
       </c>
       <c r="F2">
-        <v>-0.0174448967789588</v>
+        <v>-0.001944124665312601</v>
       </c>
       <c r="G2">
-        <v>-0.01885575228414912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.01012190278397836</v>
+      </c>
+      <c r="H2">
+        <v>-0.01993946466439911</v>
+      </c>
+      <c r="I2">
+        <v>0.04862802846756401</v>
+      </c>
+      <c r="J2">
+        <v>0.03931999579641689</v>
+      </c>
+      <c r="K2">
+        <v>0.05046447603460906</v>
+      </c>
+      <c r="L2">
+        <v>0.006088132916792121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.1011921647828297</v>
+        <v>-0.1123545302901008</v>
       </c>
       <c r="C4">
-        <v>-0.03743073858341853</v>
+        <v>0.06334998414620453</v>
       </c>
       <c r="D4">
-        <v>0.04052782815883813</v>
+        <v>0.02442311283550738</v>
       </c>
       <c r="E4">
-        <v>0.06612413220926602</v>
+        <v>0.02211205471186037</v>
       </c>
       <c r="F4">
-        <v>-0.03005034122663094</v>
+        <v>-0.1561853256634629</v>
       </c>
       <c r="G4">
-        <v>-0.02248907329308106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0008471966745448113</v>
+      </c>
+      <c r="H4">
+        <v>-0.04319784871455076</v>
+      </c>
+      <c r="I4">
+        <v>-0.0280381674498119</v>
+      </c>
+      <c r="J4">
+        <v>-0.01095095381305416</v>
+      </c>
+      <c r="K4">
+        <v>-0.03419051215970174</v>
+      </c>
+      <c r="L4">
+        <v>0.04559632103838604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1288693480470129</v>
+        <v>-0.1284674855938271</v>
       </c>
       <c r="C6">
-        <v>-0.02979392750391656</v>
+        <v>0.03035551838704287</v>
       </c>
       <c r="D6">
-        <v>0.03522226806379641</v>
+        <v>-0.008490935447316534</v>
       </c>
       <c r="E6">
-        <v>-0.006666739167239486</v>
+        <v>0.00870592903387416</v>
       </c>
       <c r="F6">
-        <v>0.1457826289311157</v>
+        <v>0.01121383808051276</v>
       </c>
       <c r="G6">
-        <v>0.1456781516189774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.09245906976016575</v>
+      </c>
+      <c r="H6">
+        <v>-0.05495440795853242</v>
+      </c>
+      <c r="I6">
+        <v>-0.2507760233079273</v>
+      </c>
+      <c r="J6">
+        <v>-0.3543995901274607</v>
+      </c>
+      <c r="K6">
+        <v>0.0517060574829991</v>
+      </c>
+      <c r="L6">
+        <v>0.1947895599457113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.08836556241393866</v>
+        <v>-0.08070114150791211</v>
       </c>
       <c r="C7">
-        <v>-0.04665819427653887</v>
+        <v>0.07036677413890914</v>
       </c>
       <c r="D7">
-        <v>0.04607098361495322</v>
+        <v>0.0341510827803622</v>
       </c>
       <c r="E7">
-        <v>0.03347073057756878</v>
+        <v>0.01835632870622603</v>
       </c>
       <c r="F7">
-        <v>0.02377670347744983</v>
+        <v>-0.03820831623743622</v>
       </c>
       <c r="G7">
-        <v>-0.03953654707533023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0002540235241384561</v>
+      </c>
+      <c r="H7">
+        <v>-0.006826123923331614</v>
+      </c>
+      <c r="I7">
+        <v>-0.01325938793115282</v>
+      </c>
+      <c r="J7">
+        <v>0.06050864570131316</v>
+      </c>
+      <c r="K7">
+        <v>-0.09235951130327565</v>
+      </c>
+      <c r="L7">
+        <v>-0.0002556940983510659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04532415648819672</v>
+        <v>-0.04903676373430806</v>
       </c>
       <c r="C8">
-        <v>0.01780863048775869</v>
+        <v>0.01645429081421296</v>
       </c>
       <c r="D8">
-        <v>0.07493396500337259</v>
+        <v>0.002707056602072793</v>
       </c>
       <c r="E8">
-        <v>0.07779400914191457</v>
+        <v>0.0150598688454512</v>
       </c>
       <c r="F8">
-        <v>-0.02505015801019749</v>
+        <v>-0.1409495472439923</v>
       </c>
       <c r="G8">
-        <v>-0.1246391003571546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02315917292995611</v>
+      </c>
+      <c r="H8">
+        <v>-0.0522419903676932</v>
+      </c>
+      <c r="I8">
+        <v>-0.02390129025784043</v>
+      </c>
+      <c r="J8">
+        <v>-0.01362060835614441</v>
+      </c>
+      <c r="K8">
+        <v>-0.01508093740444464</v>
+      </c>
+      <c r="L8">
+        <v>0.08707220858382614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.08890832160597611</v>
+        <v>-0.0854236927166688</v>
       </c>
       <c r="C9">
-        <v>-0.03754542180257293</v>
+        <v>0.05697304990640745</v>
       </c>
       <c r="D9">
-        <v>0.03829467457915132</v>
+        <v>0.02192154858058079</v>
       </c>
       <c r="E9">
-        <v>0.04237229035873957</v>
+        <v>0.003708774815071669</v>
       </c>
       <c r="F9">
-        <v>-0.01174285607961531</v>
+        <v>-0.13934623840107</v>
       </c>
       <c r="G9">
-        <v>-0.05071288975673972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.008954433171989485</v>
+      </c>
+      <c r="H9">
+        <v>-0.01886902573759354</v>
+      </c>
+      <c r="I9">
+        <v>-0.0358010603338355</v>
+      </c>
+      <c r="J9">
+        <v>0.003069690894178172</v>
+      </c>
+      <c r="K9">
+        <v>-0.001158487164109852</v>
+      </c>
+      <c r="L9">
+        <v>0.03964381774529098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.0431433370997175</v>
+        <v>-0.101747750440557</v>
       </c>
       <c r="C10">
-        <v>0.1536061591879735</v>
+        <v>-0.1652786462954265</v>
       </c>
       <c r="D10">
-        <v>0.08986643051323653</v>
+        <v>0.05778365448610597</v>
       </c>
       <c r="E10">
-        <v>0.02635769943285843</v>
+        <v>0.02716119946675769</v>
       </c>
       <c r="F10">
-        <v>0.0433429518716192</v>
+        <v>0.009769797590452023</v>
       </c>
       <c r="G10">
-        <v>-0.02605097113991557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01472323271642844</v>
+      </c>
+      <c r="H10">
+        <v>0.04309922567085613</v>
+      </c>
+      <c r="I10">
+        <v>-0.01331729622926413</v>
+      </c>
+      <c r="J10">
+        <v>-0.01222778806927138</v>
+      </c>
+      <c r="K10">
+        <v>-0.07753794251693552</v>
+      </c>
+      <c r="L10">
+        <v>-0.03142098590402147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.0738218219777939</v>
+        <v>-0.07668578560341834</v>
       </c>
       <c r="C11">
-        <v>-0.06072490568141825</v>
+        <v>0.07021734229283341</v>
       </c>
       <c r="D11">
-        <v>0.0043159143808323</v>
+        <v>0.006166575241912164</v>
       </c>
       <c r="E11">
-        <v>-0.006363574642359365</v>
+        <v>-0.02426447667065457</v>
       </c>
       <c r="F11">
-        <v>-0.01203179422765692</v>
+        <v>-0.134962928290082</v>
       </c>
       <c r="G11">
-        <v>-0.1499853288243709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.00993648823567757</v>
+      </c>
+      <c r="H11">
+        <v>0.03834897784518961</v>
+      </c>
+      <c r="I11">
+        <v>0.01541838205006561</v>
+      </c>
+      <c r="J11">
+        <v>0.08411857919824337</v>
+      </c>
+      <c r="K11">
+        <v>0.04766829164248924</v>
+      </c>
+      <c r="L11">
+        <v>0.0126932842754737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06900679891937346</v>
+        <v>-0.07123552842862606</v>
       </c>
       <c r="C12">
-        <v>-0.03648642064880313</v>
+        <v>0.06282752169206478</v>
       </c>
       <c r="D12">
-        <v>-0.003424741407724689</v>
+        <v>0.01205123778300446</v>
       </c>
       <c r="E12">
-        <v>0.0333787763288732</v>
+        <v>-0.02618210565173502</v>
       </c>
       <c r="F12">
-        <v>0.002732059979493014</v>
+        <v>-0.140570807820742</v>
       </c>
       <c r="G12">
-        <v>-0.1463291296717067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03175843580028889</v>
+      </c>
+      <c r="H12">
+        <v>0.01210272531412989</v>
+      </c>
+      <c r="I12">
+        <v>-0.02238031645940032</v>
+      </c>
+      <c r="J12">
+        <v>0.09173187629945544</v>
+      </c>
+      <c r="K12">
+        <v>0.05252785652488733</v>
+      </c>
+      <c r="L12">
+        <v>0.05023293961753629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.0606663298644792</v>
+        <v>-0.04254248716669912</v>
       </c>
       <c r="C13">
-        <v>-0.003057510427908852</v>
+        <v>0.02707146179054818</v>
       </c>
       <c r="D13">
-        <v>0.009748126306508858</v>
+        <v>0.006987476760264698</v>
       </c>
       <c r="E13">
-        <v>0.03064863393517118</v>
+        <v>0.02169980324595311</v>
       </c>
       <c r="F13">
-        <v>-0.03377523735830953</v>
+        <v>-0.04504300335995817</v>
       </c>
       <c r="G13">
-        <v>-0.05869358503465877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.006587006560083081</v>
+      </c>
+      <c r="H13">
+        <v>-0.03350075853685046</v>
+      </c>
+      <c r="I13">
+        <v>-0.03146221482694377</v>
+      </c>
+      <c r="J13">
+        <v>0.0012041614727357</v>
+      </c>
+      <c r="K13">
+        <v>-0.03343787321629457</v>
+      </c>
+      <c r="L13">
+        <v>-0.01850116340506101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.05007466576629069</v>
+        <v>-0.04289846155580637</v>
       </c>
       <c r="C14">
-        <v>-0.00104133973060769</v>
+        <v>0.02185870755253223</v>
       </c>
       <c r="D14">
-        <v>0.02837254046142085</v>
+        <v>0.009394404539445213</v>
       </c>
       <c r="E14">
-        <v>0.02116476350992061</v>
+        <v>-0.01342279183435655</v>
       </c>
       <c r="F14">
-        <v>0.004114464767127031</v>
+        <v>-0.06110087180359261</v>
       </c>
       <c r="G14">
-        <v>-0.04312385835474053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01327415300848859</v>
+      </c>
+      <c r="H14">
+        <v>-0.008996213468107779</v>
+      </c>
+      <c r="I14">
+        <v>0.01169485278860862</v>
+      </c>
+      <c r="J14">
+        <v>-0.04596331044910987</v>
+      </c>
+      <c r="K14">
+        <v>-0.06870174790162277</v>
+      </c>
+      <c r="L14">
+        <v>0.06385285193150998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03701554039426634</v>
+        <v>-0.02290483973814023</v>
       </c>
       <c r="C15">
-        <v>0.008590937531487871</v>
+        <v>0.01165546990303088</v>
       </c>
       <c r="D15">
-        <v>0.01305511100371554</v>
+        <v>-0.005669688541495107</v>
       </c>
       <c r="E15">
-        <v>0.007758574041389663</v>
+        <v>0.05035172876852625</v>
       </c>
       <c r="F15">
-        <v>-0.01292074316419996</v>
+        <v>-0.00921214737360182</v>
       </c>
       <c r="G15">
-        <v>-0.01898230124292246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03655889099276047</v>
+      </c>
+      <c r="H15">
+        <v>-0.004074103408148545</v>
+      </c>
+      <c r="I15">
+        <v>-0.01206073681365511</v>
+      </c>
+      <c r="J15">
+        <v>-0.03427924209320676</v>
+      </c>
+      <c r="K15">
+        <v>-0.06434772737078061</v>
+      </c>
+      <c r="L15">
+        <v>-0.006087680987916361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.07758039806419352</v>
+        <v>-0.08075616614405683</v>
       </c>
       <c r="C16">
-        <v>-0.07165548762897909</v>
+        <v>0.07315739146776289</v>
       </c>
       <c r="D16">
-        <v>0.01639065657748038</v>
+        <v>0.002333969272727148</v>
       </c>
       <c r="E16">
-        <v>0.03942985381339143</v>
+        <v>-0.0190283751991703</v>
       </c>
       <c r="F16">
-        <v>-0.03706956274021162</v>
+        <v>-0.1296319437771378</v>
       </c>
       <c r="G16">
-        <v>-0.1222008596700418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02739951262530686</v>
+      </c>
+      <c r="H16">
+        <v>0.02216908315221229</v>
+      </c>
+      <c r="I16">
+        <v>0.01542271968041397</v>
+      </c>
+      <c r="J16">
+        <v>0.09615381897271948</v>
+      </c>
+      <c r="K16">
+        <v>0.04135942296538198</v>
+      </c>
+      <c r="L16">
+        <v>0.04439436113636769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.04911333305956107</v>
+        <v>-0.04614189570559479</v>
       </c>
       <c r="C20">
-        <v>-0.01720826385390679</v>
+        <v>0.03660083351296915</v>
       </c>
       <c r="D20">
-        <v>0.016290119685717</v>
+        <v>0.01531996397447472</v>
       </c>
       <c r="E20">
-        <v>0.02244815001712639</v>
+        <v>0.02352933835852426</v>
       </c>
       <c r="F20">
-        <v>-0.002498706863796849</v>
+        <v>-0.06523406443989853</v>
       </c>
       <c r="G20">
-        <v>-0.09769524130391259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.02042910818591769</v>
+      </c>
+      <c r="H20">
+        <v>-0.01427571687112799</v>
+      </c>
+      <c r="I20">
+        <v>-0.03034005091272834</v>
+      </c>
+      <c r="J20">
+        <v>0.0123569895388675</v>
+      </c>
+      <c r="K20">
+        <v>-0.05410116144818227</v>
+      </c>
+      <c r="L20">
+        <v>0.02589550573562183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02683213303965002</v>
+        <v>-0.02311309988513308</v>
       </c>
       <c r="C21">
-        <v>-0.04091793177941205</v>
+        <v>0.01996513885559379</v>
       </c>
       <c r="D21">
-        <v>-0.006862113909299015</v>
+        <v>0.002617222563838133</v>
       </c>
       <c r="E21">
-        <v>0.01970243545619771</v>
+        <v>0.001639273866540103</v>
       </c>
       <c r="F21">
-        <v>0.08334630060361509</v>
+        <v>-0.0672479104955792</v>
       </c>
       <c r="G21">
-        <v>0.055028321180827</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0402950747398276</v>
+      </c>
+      <c r="H21">
+        <v>0.03365333698459904</v>
+      </c>
+      <c r="I21">
+        <v>-0.08869228834724741</v>
+      </c>
+      <c r="J21">
+        <v>0.01943269264564943</v>
+      </c>
+      <c r="K21">
+        <v>-0.1469969869755814</v>
+      </c>
+      <c r="L21">
+        <v>-0.04420138104422251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04024110259997201</v>
+        <v>-0.04887965266325937</v>
       </c>
       <c r="C22">
-        <v>-0.004747795201194054</v>
+        <v>0.01411323504686811</v>
       </c>
       <c r="D22">
-        <v>-0.02774105272608814</v>
+        <v>-0.1004573125867403</v>
       </c>
       <c r="E22">
-        <v>0.5658048230934293</v>
+        <v>0.650939056298391</v>
       </c>
       <c r="F22">
-        <v>-0.1226309363263954</v>
+        <v>0.0635322295381717</v>
       </c>
       <c r="G22">
-        <v>0.2794608364775734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1192833292655558</v>
+      </c>
+      <c r="H22">
+        <v>0.08948327659018288</v>
+      </c>
+      <c r="I22">
+        <v>-0.02738422876176062</v>
+      </c>
+      <c r="J22">
+        <v>0.05292201757003503</v>
+      </c>
+      <c r="K22">
+        <v>0.06765178141059466</v>
+      </c>
+      <c r="L22">
+        <v>-0.01003901866551364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04026488164255475</v>
+        <v>-0.0493021267229756</v>
       </c>
       <c r="C23">
-        <v>-0.005234051341117485</v>
+        <v>0.01469846987568425</v>
       </c>
       <c r="D23">
-        <v>-0.02654846981682131</v>
+        <v>-0.1008208238394086</v>
       </c>
       <c r="E23">
-        <v>0.5654519551899059</v>
+        <v>0.6527215608626444</v>
       </c>
       <c r="F23">
-        <v>-0.1236026081118755</v>
+        <v>0.0610333587847111</v>
       </c>
       <c r="G23">
-        <v>0.2810152830940865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1202672408608379</v>
+      </c>
+      <c r="H23">
+        <v>0.08735270264479471</v>
+      </c>
+      <c r="I23">
+        <v>-0.0273348579823447</v>
+      </c>
+      <c r="J23">
+        <v>0.04976126127456407</v>
+      </c>
+      <c r="K23">
+        <v>0.07040452137918601</v>
+      </c>
+      <c r="L23">
+        <v>-0.008669302056973385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08558401308020076</v>
+        <v>-0.08343085758757997</v>
       </c>
       <c r="C24">
-        <v>-0.04705164378686532</v>
+        <v>0.06483284769525463</v>
       </c>
       <c r="D24">
-        <v>0.0166752368228305</v>
+        <v>0.007965272374886334</v>
       </c>
       <c r="E24">
-        <v>0.0361655600062211</v>
+        <v>-0.01426629435565944</v>
       </c>
       <c r="F24">
-        <v>-0.008503745427060911</v>
+        <v>-0.1292567088460425</v>
       </c>
       <c r="G24">
-        <v>-0.1222292309920746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01181959793387842</v>
+      </c>
+      <c r="H24">
+        <v>0.05461005746709467</v>
+      </c>
+      <c r="I24">
+        <v>0.02206675729277475</v>
+      </c>
+      <c r="J24">
+        <v>0.08439799079304218</v>
+      </c>
+      <c r="K24">
+        <v>0.06653225515244449</v>
+      </c>
+      <c r="L24">
+        <v>0.02823887354235425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07544967405833197</v>
+        <v>-0.08272207885393025</v>
       </c>
       <c r="C25">
-        <v>-0.02023603247124573</v>
+        <v>0.05087742398920598</v>
       </c>
       <c r="D25">
-        <v>0.02273663487561731</v>
+        <v>0.019713305566339</v>
       </c>
       <c r="E25">
-        <v>0.02476516113868211</v>
+        <v>-0.02809789775048383</v>
       </c>
       <c r="F25">
-        <v>0.002806872639171532</v>
+        <v>-0.1290409970814295</v>
       </c>
       <c r="G25">
-        <v>-0.1137791945734833</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03316937727311339</v>
+      </c>
+      <c r="H25">
+        <v>0.02615392065154614</v>
+      </c>
+      <c r="I25">
+        <v>0.01414598946560543</v>
+      </c>
+      <c r="J25">
+        <v>0.07716817144023547</v>
+      </c>
+      <c r="K25">
+        <v>0.05174231406986926</v>
+      </c>
+      <c r="L25">
+        <v>0.05845596524895289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.04952696052973841</v>
+        <v>-0.0423626481250432</v>
       </c>
       <c r="C26">
-        <v>-0.02786509443898913</v>
+        <v>0.01005739910985253</v>
       </c>
       <c r="D26">
-        <v>0.02946103966754806</v>
+        <v>-0.002521366045978087</v>
       </c>
       <c r="E26">
-        <v>0.01454430316243259</v>
+        <v>0.01290655309179787</v>
       </c>
       <c r="F26">
-        <v>-0.01919113614895145</v>
+        <v>-0.05270318598731286</v>
       </c>
       <c r="G26">
-        <v>-0.05094893102503446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.015046920668016</v>
+      </c>
+      <c r="H26">
+        <v>0.03434737419072168</v>
+      </c>
+      <c r="I26">
+        <v>7.19512363064069e-06</v>
+      </c>
+      <c r="J26">
+        <v>-0.03384591108906095</v>
+      </c>
+      <c r="K26">
+        <v>-0.06846430401796001</v>
+      </c>
+      <c r="L26">
+        <v>-0.01273457441109959</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.06995748184352227</v>
+        <v>-0.1245755831381571</v>
       </c>
       <c r="C28">
-        <v>0.2944310453494848</v>
+        <v>-0.3008652305235935</v>
       </c>
       <c r="D28">
-        <v>0.06953939661205027</v>
+        <v>-0.0006754996976948114</v>
       </c>
       <c r="E28">
-        <v>-0.03352719414771078</v>
+        <v>-0.00971051076771141</v>
       </c>
       <c r="F28">
-        <v>0.04471213858473989</v>
+        <v>-0.01410575069589003</v>
       </c>
       <c r="G28">
-        <v>0.0322890909531629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.007324225151263096</v>
+      </c>
+      <c r="H28">
+        <v>-0.007248031864107184</v>
+      </c>
+      <c r="I28">
+        <v>-0.02718977892469384</v>
+      </c>
+      <c r="J28">
+        <v>0.01803788867868006</v>
+      </c>
+      <c r="K28">
+        <v>-0.008748798166580861</v>
+      </c>
+      <c r="L28">
+        <v>-0.01847449999941628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05389925737450854</v>
+        <v>-0.04259933987967636</v>
       </c>
       <c r="C29">
-        <v>-0.003368880336695555</v>
+        <v>0.02464563596160716</v>
       </c>
       <c r="D29">
-        <v>0.01886541737029041</v>
+        <v>0.02451147210824757</v>
       </c>
       <c r="E29">
-        <v>0.04083504267634162</v>
+        <v>0.0004797650581862546</v>
       </c>
       <c r="F29">
-        <v>-0.02659026512029632</v>
+        <v>-0.06304925465783771</v>
       </c>
       <c r="G29">
-        <v>-0.02112972400374894</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03566249014964397</v>
+      </c>
+      <c r="H29">
+        <v>0.003497810478236677</v>
+      </c>
+      <c r="I29">
+        <v>-0.004589736823241855</v>
+      </c>
+      <c r="J29">
+        <v>-0.03475958579855129</v>
+      </c>
+      <c r="K29">
+        <v>-0.06954769001477422</v>
+      </c>
+      <c r="L29">
+        <v>0.04253594170965462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1206135089066356</v>
+        <v>-0.1071195536518059</v>
       </c>
       <c r="C30">
-        <v>0.01141612273441988</v>
+        <v>0.05835209896578678</v>
       </c>
       <c r="D30">
-        <v>0.07174172472258948</v>
+        <v>-0.02076165852960876</v>
       </c>
       <c r="E30">
-        <v>0.1913874339623756</v>
+        <v>-0.01551440461630704</v>
       </c>
       <c r="F30">
-        <v>0.04002403095508356</v>
+        <v>-0.2004476205332845</v>
       </c>
       <c r="G30">
-        <v>-0.1537588588599935</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.09878806359101443</v>
+      </c>
+      <c r="H30">
+        <v>0.06047487554355142</v>
+      </c>
+      <c r="I30">
+        <v>-0.2403662435407776</v>
+      </c>
+      <c r="J30">
+        <v>0.1434055475958167</v>
+      </c>
+      <c r="K30">
+        <v>0.1470348669140011</v>
+      </c>
+      <c r="L30">
+        <v>0.0332577778415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.0561661135061625</v>
+        <v>-0.0392261883389848</v>
       </c>
       <c r="C31">
-        <v>-0.01674371111148099</v>
+        <v>0.03937365608402788</v>
       </c>
       <c r="D31">
-        <v>-0.006140337429327989</v>
+        <v>0.00183653384095866</v>
       </c>
       <c r="E31">
-        <v>0.01327937630337174</v>
+        <v>0.005785737261610372</v>
       </c>
       <c r="F31">
-        <v>-0.02095883516503411</v>
+        <v>-0.02499945187547266</v>
       </c>
       <c r="G31">
-        <v>-0.001456179508919269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01107796837674782</v>
+      </c>
+      <c r="H31">
+        <v>-0.006461903199656086</v>
+      </c>
+      <c r="I31">
+        <v>0.03209763838565395</v>
+      </c>
+      <c r="J31">
+        <v>-0.02663655562943949</v>
+      </c>
+      <c r="K31">
+        <v>-0.001348016624746731</v>
+      </c>
+      <c r="L31">
+        <v>0.03903123858458309</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.03369774986051106</v>
+        <v>-0.04673497595962276</v>
       </c>
       <c r="C32">
-        <v>0.02603720489317022</v>
+        <v>-0.0002933950020362997</v>
       </c>
       <c r="D32">
-        <v>0.002623905250614421</v>
+        <v>-0.02991577124858776</v>
       </c>
       <c r="E32">
-        <v>0.0868334639222038</v>
+        <v>-0.01521590375689375</v>
       </c>
       <c r="F32">
-        <v>-0.06600526316822149</v>
+        <v>-0.07166707731950533</v>
       </c>
       <c r="G32">
-        <v>-0.06220402043587431</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03016171261855193</v>
+      </c>
+      <c r="H32">
+        <v>0.005813934710265854</v>
+      </c>
+      <c r="I32">
+        <v>0.00658734781038214</v>
+      </c>
+      <c r="J32">
+        <v>-0.008474912534699675</v>
+      </c>
+      <c r="K32">
+        <v>-0.01915034601544903</v>
+      </c>
+      <c r="L32">
+        <v>0.01178107068193568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1100924066483547</v>
+        <v>-0.1005465112513676</v>
       </c>
       <c r="C33">
-        <v>-0.01785057716808355</v>
+        <v>0.05669497334045981</v>
       </c>
       <c r="D33">
-        <v>-0.01143152642016323</v>
+        <v>-0.0005003795158826682</v>
       </c>
       <c r="E33">
-        <v>0.001858823487771207</v>
+        <v>-0.02774541230991558</v>
       </c>
       <c r="F33">
-        <v>-0.04715154772088551</v>
+        <v>-0.081725450340704</v>
       </c>
       <c r="G33">
-        <v>-0.03648784155884943</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01075594267482891</v>
+      </c>
+      <c r="H33">
+        <v>0.01262745987475696</v>
+      </c>
+      <c r="I33">
+        <v>0.007697074667689091</v>
+      </c>
+      <c r="J33">
+        <v>-0.006291526081727404</v>
+      </c>
+      <c r="K33">
+        <v>-0.003769500877574795</v>
+      </c>
+      <c r="L33">
+        <v>0.02254032468243393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06436745113474579</v>
+        <v>-0.0675826804540266</v>
       </c>
       <c r="C34">
-        <v>-0.04980855183563251</v>
+        <v>0.05411058866777962</v>
       </c>
       <c r="D34">
-        <v>0.004612199153373203</v>
+        <v>0.008215891028034552</v>
       </c>
       <c r="E34">
-        <v>0.01940975358327685</v>
+        <v>-0.02270205565333184</v>
       </c>
       <c r="F34">
-        <v>-0.01074202480380378</v>
+        <v>-0.1163944156811305</v>
       </c>
       <c r="G34">
-        <v>-0.09029868424071111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01984920530669225</v>
+      </c>
+      <c r="H34">
+        <v>0.01665049865106921</v>
+      </c>
+      <c r="I34">
+        <v>0.01430561798985784</v>
+      </c>
+      <c r="J34">
+        <v>0.07612847238552932</v>
+      </c>
+      <c r="K34">
+        <v>0.004537878624064617</v>
+      </c>
+      <c r="L34">
+        <v>0.04768303824502607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04301071999027344</v>
+        <v>-0.02341614038070972</v>
       </c>
       <c r="C35">
-        <v>-0.006095924232123947</v>
+        <v>0.02005678835734507</v>
       </c>
       <c r="D35">
-        <v>-0.01399441052818096</v>
+        <v>0.003960638182802843</v>
       </c>
       <c r="E35">
-        <v>0.0131452567200571</v>
+        <v>-0.007027060927196239</v>
       </c>
       <c r="F35">
-        <v>0.02932871921359419</v>
+        <v>-0.03226646017986715</v>
       </c>
       <c r="G35">
-        <v>-0.05699901484904071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.03113750753295156</v>
+      </c>
+      <c r="H35">
+        <v>-0.00283657216926592</v>
+      </c>
+      <c r="I35">
+        <v>-0.02623659802120106</v>
+      </c>
+      <c r="J35">
+        <v>0.0445341010344499</v>
+      </c>
+      <c r="K35">
+        <v>-0.04972526239610702</v>
+      </c>
+      <c r="L35">
+        <v>0.02807533876301967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03571983818405642</v>
+        <v>-0.02734355429328188</v>
       </c>
       <c r="C36">
-        <v>-0.001231073931148632</v>
+        <v>0.0124915149167886</v>
       </c>
       <c r="D36">
-        <v>0.0234684736634179</v>
+        <v>0.0008299204411724298</v>
       </c>
       <c r="E36">
-        <v>0.03227435637871898</v>
+        <v>0.01291895886106045</v>
       </c>
       <c r="F36">
-        <v>-0.002832672451410279</v>
+        <v>-0.06853013859689479</v>
       </c>
       <c r="G36">
-        <v>-0.05809579612185867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01381786196562057</v>
+      </c>
+      <c r="H36">
+        <v>0.01253087654287701</v>
+      </c>
+      <c r="I36">
+        <v>-0.01932801491204812</v>
+      </c>
+      <c r="J36">
+        <v>-0.02546272736003355</v>
+      </c>
+      <c r="K36">
+        <v>-0.01578497463042295</v>
+      </c>
+      <c r="L36">
+        <v>0.02338568059247054</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05059014577076857</v>
+        <v>-0.02399803491206467</v>
       </c>
       <c r="C38">
-        <v>-0.01820298663768942</v>
+        <v>0.03014454324490043</v>
       </c>
       <c r="D38">
-        <v>-0.001553362078029995</v>
+        <v>0.00765028539328848</v>
       </c>
       <c r="E38">
-        <v>0.01068484537384704</v>
+        <v>0.01995364682430319</v>
       </c>
       <c r="F38">
-        <v>0.001438660517771244</v>
+        <v>0.04821994235261788</v>
       </c>
       <c r="G38">
-        <v>-0.04609397515293662</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01623610785288163</v>
+      </c>
+      <c r="H38">
+        <v>0.01410732928697962</v>
+      </c>
+      <c r="I38">
+        <v>-0.02866116613067152</v>
+      </c>
+      <c r="J38">
+        <v>-0.007999429478343117</v>
+      </c>
+      <c r="K38">
+        <v>-0.003263629049348115</v>
+      </c>
+      <c r="L38">
+        <v>-0.09020282283375775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1063476657825007</v>
+        <v>-0.11275488635777</v>
       </c>
       <c r="C39">
-        <v>-0.04296055055925768</v>
+        <v>0.08456493198881206</v>
       </c>
       <c r="D39">
-        <v>0.003277266471255948</v>
+        <v>0.01198573398299995</v>
       </c>
       <c r="E39">
-        <v>0.06804195688156173</v>
+        <v>-0.09185812359443218</v>
       </c>
       <c r="F39">
-        <v>-0.009158235107902025</v>
+        <v>-0.148218000468284</v>
       </c>
       <c r="G39">
-        <v>-0.1770956968249843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1236779434265256</v>
+      </c>
+      <c r="H39">
+        <v>0.01223514700154403</v>
+      </c>
+      <c r="I39">
+        <v>-0.02590404085911676</v>
+      </c>
+      <c r="J39">
+        <v>0.1895337468110695</v>
+      </c>
+      <c r="K39">
+        <v>0.1150467639981435</v>
+      </c>
+      <c r="L39">
+        <v>0.04827847978893129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.05170530158989679</v>
+        <v>-0.03141888288279642</v>
       </c>
       <c r="C40">
-        <v>-0.02046485817462744</v>
+        <v>0.05819694505651717</v>
       </c>
       <c r="D40">
-        <v>-0.02299753420629382</v>
+        <v>0.005279211318119001</v>
       </c>
       <c r="E40">
-        <v>0.09580000475585745</v>
+        <v>0.0370153610888847</v>
       </c>
       <c r="F40">
-        <v>-0.002384901578723501</v>
+        <v>-0.1150558600302964</v>
       </c>
       <c r="G40">
-        <v>-0.2412082719016704</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02953291663597885</v>
+      </c>
+      <c r="H40">
+        <v>0.08784662353337289</v>
+      </c>
+      <c r="I40">
+        <v>-0.05105939028407541</v>
+      </c>
+      <c r="J40">
+        <v>-0.006546042576339916</v>
+      </c>
+      <c r="K40">
+        <v>-0.02513470129687765</v>
+      </c>
+      <c r="L40">
+        <v>-0.1338561981186907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04868886466862313</v>
+        <v>-0.03529489426966772</v>
       </c>
       <c r="C41">
-        <v>-0.03205287995087661</v>
+        <v>0.02887974718673118</v>
       </c>
       <c r="D41">
-        <v>0.00581850390017938</v>
+        <v>0.0151682117545678</v>
       </c>
       <c r="E41">
-        <v>-0.005122831899734185</v>
+        <v>-0.01451831517412682</v>
       </c>
       <c r="F41">
-        <v>-0.01802005225249849</v>
+        <v>-0.01883321424422753</v>
       </c>
       <c r="G41">
-        <v>-0.08101755802162584</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01659545578418034</v>
+      </c>
+      <c r="H41">
+        <v>-0.004249534112256937</v>
+      </c>
+      <c r="I41">
+        <v>-0.003901804274446167</v>
+      </c>
+      <c r="J41">
+        <v>0.01137063605543805</v>
+      </c>
+      <c r="K41">
+        <v>-0.01084989736110657</v>
+      </c>
+      <c r="L41">
+        <v>-0.005267617966554131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.07416907647368957</v>
+        <v>-0.05034078225472257</v>
       </c>
       <c r="C43">
-        <v>-0.03022573679587271</v>
+        <v>0.03015559897666159</v>
       </c>
       <c r="D43">
-        <v>0.02428838451448115</v>
+        <v>0.008168606161008223</v>
       </c>
       <c r="E43">
-        <v>0.03024003259034286</v>
+        <v>0.01389419729959177</v>
       </c>
       <c r="F43">
-        <v>-0.01433927878077993</v>
+        <v>-0.01177438895599544</v>
       </c>
       <c r="G43">
-        <v>-0.03411996222621868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.04139352500098119</v>
+      </c>
+      <c r="H43">
+        <v>-0.0130744580378728</v>
+      </c>
+      <c r="I43">
+        <v>-0.0159559544716271</v>
+      </c>
+      <c r="J43">
+        <v>0.0103904654959643</v>
+      </c>
+      <c r="K43">
+        <v>0.02468708632056837</v>
+      </c>
+      <c r="L43">
+        <v>0.01553547418721368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.06515726241266329</v>
+        <v>-0.1123470117254584</v>
       </c>
       <c r="C44">
-        <v>-0.02888049741986953</v>
+        <v>0.09359168504502405</v>
       </c>
       <c r="D44">
-        <v>0.0984420520054332</v>
+        <v>0.05375123167047229</v>
       </c>
       <c r="E44">
-        <v>0.07626947396975886</v>
+        <v>0.09909796652503122</v>
       </c>
       <c r="F44">
-        <v>-0.02234638126953146</v>
+        <v>-0.2084637200519404</v>
       </c>
       <c r="G44">
-        <v>-0.1335136345046527</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03101270226066368</v>
+      </c>
+      <c r="H44">
+        <v>0.08790970997105121</v>
+      </c>
+      <c r="I44">
+        <v>-0.04326194535469967</v>
+      </c>
+      <c r="J44">
+        <v>-0.03340308333798327</v>
+      </c>
+      <c r="K44">
+        <v>-0.2371858351063718</v>
+      </c>
+      <c r="L44">
+        <v>-0.06812592562835622</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.0445932251018677</v>
+        <v>-0.03420638936766053</v>
       </c>
       <c r="C46">
-        <v>-0.040136896531939</v>
+        <v>0.02465545620268841</v>
       </c>
       <c r="D46">
-        <v>0.01980890639148462</v>
+        <v>0.02263148421454123</v>
       </c>
       <c r="E46">
-        <v>0.05445429224464148</v>
+        <v>0.03863314569836842</v>
       </c>
       <c r="F46">
-        <v>-0.01045618789388823</v>
+        <v>-0.03378933005047988</v>
       </c>
       <c r="G46">
-        <v>-0.04956733600889907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02238563717617725</v>
+      </c>
+      <c r="H46">
+        <v>0.03124323780514429</v>
+      </c>
+      <c r="I46">
+        <v>0.004388036802625506</v>
+      </c>
+      <c r="J46">
+        <v>-0.005685989609578397</v>
+      </c>
+      <c r="K46">
+        <v>-0.1067336842816571</v>
+      </c>
+      <c r="L46">
+        <v>0.08303562219991022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04842760664348384</v>
+        <v>-0.04246531631421947</v>
       </c>
       <c r="C47">
-        <v>-0.005267695970261565</v>
+        <v>0.02451044810677137</v>
       </c>
       <c r="D47">
-        <v>0.008477457577036617</v>
+        <v>0.003669140712258216</v>
       </c>
       <c r="E47">
-        <v>0.06553658872174871</v>
+        <v>0.01778057601553347</v>
       </c>
       <c r="F47">
-        <v>0.008910970156325458</v>
+        <v>-0.03677320702723642</v>
       </c>
       <c r="G47">
-        <v>0.007026997695765314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.002865384300234852</v>
+      </c>
+      <c r="H47">
+        <v>-0.004937132516139134</v>
+      </c>
+      <c r="I47">
+        <v>-0.0194176353534334</v>
+      </c>
+      <c r="J47">
+        <v>-0.02639088736419297</v>
+      </c>
+      <c r="K47">
+        <v>-0.04647614136601581</v>
+      </c>
+      <c r="L47">
+        <v>0.01159266182259102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04203203337240088</v>
+        <v>-0.0435442791694965</v>
       </c>
       <c r="C48">
-        <v>0.003836579727679094</v>
+        <v>0.01373063936256322</v>
       </c>
       <c r="D48">
-        <v>-0.00269898282104712</v>
+        <v>0.007863639411724173</v>
       </c>
       <c r="E48">
-        <v>0.03504789091550115</v>
+        <v>0.00457937057569933</v>
       </c>
       <c r="F48">
-        <v>-0.0001136445446760426</v>
+        <v>-0.06859455856562263</v>
       </c>
       <c r="G48">
-        <v>-0.038877956867228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.005611522558650823</v>
+      </c>
+      <c r="H48">
+        <v>0.02536786148321765</v>
+      </c>
+      <c r="I48">
+        <v>-0.01878169817013064</v>
+      </c>
+      <c r="J48">
+        <v>0.009541792199336225</v>
+      </c>
+      <c r="K48">
+        <v>-0.03514264582320608</v>
+      </c>
+      <c r="L48">
+        <v>0.05307725455951499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2362719728667957</v>
+        <v>-0.2217309942741668</v>
       </c>
       <c r="C49">
-        <v>-0.1026731194911637</v>
+        <v>0.04841153602044931</v>
       </c>
       <c r="D49">
-        <v>0.04613700192957925</v>
+        <v>0.08083975808555159</v>
       </c>
       <c r="E49">
-        <v>-0.08042854845106172</v>
+        <v>-0.02874725866667874</v>
       </c>
       <c r="F49">
-        <v>0.1585257998539335</v>
+        <v>0.2278240020476829</v>
       </c>
       <c r="G49">
-        <v>0.069806725345346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.1848404228906964</v>
+      </c>
+      <c r="H49">
+        <v>0.1808820928633881</v>
+      </c>
+      <c r="I49">
+        <v>-0.03229226043820426</v>
+      </c>
+      <c r="J49">
+        <v>0.115759775934088</v>
+      </c>
+      <c r="K49">
+        <v>0.2142275774724596</v>
+      </c>
+      <c r="L49">
+        <v>-0.02811941731005109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05460927813439997</v>
+        <v>-0.0437188961816461</v>
       </c>
       <c r="C50">
-        <v>-0.01591138078470624</v>
+        <v>0.02811018804692292</v>
       </c>
       <c r="D50">
-        <v>-0.007156769309089404</v>
+        <v>-0.0006118810173794743</v>
       </c>
       <c r="E50">
-        <v>0.02916295773432637</v>
+        <v>0.0003642434490874518</v>
       </c>
       <c r="F50">
-        <v>-0.0430695956373687</v>
+        <v>-0.04782946916299333</v>
       </c>
       <c r="G50">
-        <v>0.009945811090927559</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02104530575592275</v>
+      </c>
+      <c r="H50">
+        <v>0.01028157363372313</v>
+      </c>
+      <c r="I50">
+        <v>0.01813663773552245</v>
+      </c>
+      <c r="J50">
+        <v>-0.03754053297068483</v>
+      </c>
+      <c r="K50">
+        <v>0.002791349071338461</v>
+      </c>
+      <c r="L50">
+        <v>0.03841237554904819</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03550394224991273</v>
+        <v>-0.02277913615311868</v>
       </c>
       <c r="C51">
-        <v>-0.01584962427454567</v>
+        <v>-0.0009787028915799539</v>
       </c>
       <c r="D51">
-        <v>0.01249310119411735</v>
+        <v>0.01622066852058312</v>
       </c>
       <c r="E51">
-        <v>-0.006105753363927278</v>
+        <v>0.003557870211148937</v>
       </c>
       <c r="F51">
-        <v>-0.0002154472365653601</v>
+        <v>0.02287632719323738</v>
       </c>
       <c r="G51">
-        <v>-0.0151896917820438</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01383388704495688</v>
+      </c>
+      <c r="H51">
+        <v>-0.01175237588384152</v>
+      </c>
+      <c r="I51">
+        <v>-0.004697246115703039</v>
+      </c>
+      <c r="J51">
+        <v>0.02775863911274653</v>
+      </c>
+      <c r="K51">
+        <v>0.05197280516695555</v>
+      </c>
+      <c r="L51">
+        <v>0.007254808792975656</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.06155534305203682</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03515360259893056</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.003694240212351754</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.01242016005441078</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01738554419630358</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.1044900600219379</v>
+      </c>
+      <c r="H52">
+        <v>-0.0005579436376989314</v>
+      </c>
+      <c r="I52">
+        <v>0.06801747879302759</v>
+      </c>
+      <c r="J52">
+        <v>-0.02045934315945665</v>
+      </c>
+      <c r="K52">
+        <v>-0.02792357822014986</v>
+      </c>
+      <c r="L52">
+        <v>0.01412272791106628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1613948047654822</v>
+        <v>-0.1614846994180454</v>
       </c>
       <c r="C53">
-        <v>-0.004873324754798409</v>
+        <v>0.03668469675087557</v>
       </c>
       <c r="D53">
-        <v>0.005868151998428768</v>
+        <v>0.02367315101181802</v>
       </c>
       <c r="E53">
-        <v>-0.0583841821277357</v>
+        <v>-0.004774094872234987</v>
       </c>
       <c r="F53">
-        <v>-0.2413034587448211</v>
+        <v>0.07779732257887401</v>
       </c>
       <c r="G53">
-        <v>0.04221990337399392</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.1597889252845551</v>
+      </c>
+      <c r="H53">
+        <v>-0.04688343813846314</v>
+      </c>
+      <c r="I53">
+        <v>0.2037580409719716</v>
+      </c>
+      <c r="J53">
+        <v>-0.1371159031939794</v>
+      </c>
+      <c r="K53">
+        <v>0.02734714439883025</v>
+      </c>
+      <c r="L53">
+        <v>-0.0231439179321832</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.05210380112018947</v>
+        <v>-0.05649419192538332</v>
       </c>
       <c r="C54">
-        <v>-0.005132305285097873</v>
+        <v>0.03868534751718748</v>
       </c>
       <c r="D54">
-        <v>0.02362511854252618</v>
+        <v>0.01136907476039032</v>
       </c>
       <c r="E54">
-        <v>0.04848785720558296</v>
+        <v>0.02095699125903331</v>
       </c>
       <c r="F54">
-        <v>-0.01672384689619602</v>
+        <v>-0.1265083851432834</v>
       </c>
       <c r="G54">
-        <v>-0.07162003392886469</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.006330353018698542</v>
+      </c>
+      <c r="H54">
+        <v>-0.05406229666146024</v>
+      </c>
+      <c r="I54">
+        <v>-0.0403188361466048</v>
+      </c>
+      <c r="J54">
+        <v>-0.04490133987275699</v>
+      </c>
+      <c r="K54">
+        <v>-0.1197764290247527</v>
+      </c>
+      <c r="L54">
+        <v>0.0406191650003043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09543541994726309</v>
+        <v>-0.09225101827624034</v>
       </c>
       <c r="C55">
-        <v>-0.0111891897518146</v>
+        <v>0.03731569283615644</v>
       </c>
       <c r="D55">
-        <v>0.01544157932699033</v>
+        <v>0.02097837560397245</v>
       </c>
       <c r="E55">
-        <v>-0.003624424111085346</v>
+        <v>-0.02058679304709905</v>
       </c>
       <c r="F55">
-        <v>-0.1842490410967094</v>
+        <v>0.001354509757557577</v>
       </c>
       <c r="G55">
-        <v>0.005947177293359941</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.09697706456082611</v>
+      </c>
+      <c r="H55">
+        <v>-0.05903038571006049</v>
+      </c>
+      <c r="I55">
+        <v>0.1347867825830722</v>
+      </c>
+      <c r="J55">
+        <v>-0.06316262601649508</v>
+      </c>
+      <c r="K55">
+        <v>-0.01239126777901961</v>
+      </c>
+      <c r="L55">
+        <v>0.01033489046367717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1616993808092911</v>
+        <v>-0.1581165104527375</v>
       </c>
       <c r="C56">
-        <v>1.218280848700829e-05</v>
+        <v>0.05400034147438244</v>
       </c>
       <c r="D56">
-        <v>0.001366080357236155</v>
+        <v>0.04338491558270388</v>
       </c>
       <c r="E56">
-        <v>-0.05924050217390928</v>
+        <v>-0.01830270871792146</v>
       </c>
       <c r="F56">
-        <v>-0.2389604887386497</v>
+        <v>0.0458738449969899</v>
       </c>
       <c r="G56">
-        <v>0.0644970337185537</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1427189254755027</v>
+      </c>
+      <c r="H56">
+        <v>-0.03056763418422571</v>
+      </c>
+      <c r="I56">
+        <v>0.1956483054397827</v>
+      </c>
+      <c r="J56">
+        <v>-0.1167265258862885</v>
+      </c>
+      <c r="K56">
+        <v>0.01977779665566843</v>
+      </c>
+      <c r="L56">
+        <v>-0.04275965501870073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03463566063174826</v>
+        <v>-0.05152438055104788</v>
       </c>
       <c r="C58">
-        <v>-0.05099807915687514</v>
+        <v>0.04481495697821028</v>
       </c>
       <c r="D58">
-        <v>-0.03399344985634848</v>
+        <v>-0.01357053206119636</v>
       </c>
       <c r="E58">
-        <v>0.2882914015689151</v>
+        <v>0.07669885587600445</v>
       </c>
       <c r="F58">
-        <v>0.4647428310498366</v>
+        <v>-0.02400396678208452</v>
       </c>
       <c r="G58">
-        <v>-0.1025911147022053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.05926023837558927</v>
+      </c>
+      <c r="H58">
+        <v>0.04156476174645647</v>
+      </c>
+      <c r="I58">
+        <v>-0.1113269880705089</v>
+      </c>
+      <c r="J58">
+        <v>0.1928185380339029</v>
+      </c>
+      <c r="K58">
+        <v>-0.1051084305942226</v>
+      </c>
+      <c r="L58">
+        <v>0.4399676073463685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1663645012874318</v>
+        <v>-0.1988476164831909</v>
       </c>
       <c r="C59">
-        <v>0.3866385233351775</v>
+        <v>-0.3012061470361032</v>
       </c>
       <c r="D59">
-        <v>0.0933823299802166</v>
+        <v>0.02335719051690052</v>
       </c>
       <c r="E59">
-        <v>-0.07326451613843313</v>
+        <v>-0.04400704043609801</v>
       </c>
       <c r="F59">
-        <v>-0.04115339934908696</v>
+        <v>-0.0268511849356601</v>
       </c>
       <c r="G59">
-        <v>-0.01129414131616467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02647881017816605</v>
+      </c>
+      <c r="H59">
+        <v>-0.08468860562642509</v>
+      </c>
+      <c r="I59">
+        <v>0.08822011875380635</v>
+      </c>
+      <c r="J59">
+        <v>-0.003681874364736277</v>
+      </c>
+      <c r="K59">
+        <v>0.05290715848586832</v>
+      </c>
+      <c r="L59">
+        <v>-0.1053984899069149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2654921968683516</v>
+        <v>-0.2465993217886825</v>
       </c>
       <c r="C60">
-        <v>-0.07115911890790669</v>
+        <v>0.09698146321638842</v>
       </c>
       <c r="D60">
-        <v>0.07928707655636592</v>
+        <v>0.1029493307836915</v>
       </c>
       <c r="E60">
-        <v>-0.06767843781312124</v>
+        <v>-0.03478158672073149</v>
       </c>
       <c r="F60">
-        <v>0.06665044649264544</v>
+        <v>0.1357137521967193</v>
       </c>
       <c r="G60">
-        <v>0.1907513080109943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.07031900231619378</v>
+      </c>
+      <c r="H60">
+        <v>0.1001292552522048</v>
+      </c>
+      <c r="I60">
+        <v>-0.04773550290779137</v>
+      </c>
+      <c r="J60">
+        <v>-0.1077866352309276</v>
+      </c>
+      <c r="K60">
+        <v>0.2076718481005786</v>
+      </c>
+      <c r="L60">
+        <v>0.01198737219518166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.09161629268272048</v>
+        <v>-0.1026398461411529</v>
       </c>
       <c r="C61">
-        <v>-0.01829845731035185</v>
+        <v>0.04830871853769288</v>
       </c>
       <c r="D61">
-        <v>0.00371010704935746</v>
+        <v>0.02462331800520392</v>
       </c>
       <c r="E61">
-        <v>0.02328515119801854</v>
+        <v>-0.053484389507358</v>
       </c>
       <c r="F61">
-        <v>-0.02101120506377705</v>
+        <v>-0.1271428776653247</v>
       </c>
       <c r="G61">
-        <v>-0.06816588953952639</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1048162565967346</v>
+      </c>
+      <c r="H61">
+        <v>-0.01171162484612123</v>
+      </c>
+      <c r="I61">
+        <v>0.01902501869115715</v>
+      </c>
+      <c r="J61">
+        <v>0.1062179348969782</v>
+      </c>
+      <c r="K61">
+        <v>0.03513607325519113</v>
+      </c>
+      <c r="L61">
+        <v>0.03920801877421144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1455394915314593</v>
+        <v>-0.1507176676767137</v>
       </c>
       <c r="C62">
-        <v>-0.02751390264144907</v>
+        <v>0.05358375329136535</v>
       </c>
       <c r="D62">
-        <v>-0.0337563722660205</v>
+        <v>0.0184856757527773</v>
       </c>
       <c r="E62">
-        <v>-0.1244722770918136</v>
+        <v>-0.02212825977467033</v>
       </c>
       <c r="F62">
-        <v>-0.2381951185104592</v>
+        <v>0.06497011286693646</v>
       </c>
       <c r="G62">
-        <v>0.01511971488317426</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.1143857066283654</v>
+      </c>
+      <c r="H62">
+        <v>-0.01153273314121984</v>
+      </c>
+      <c r="I62">
+        <v>0.1958503281862859</v>
+      </c>
+      <c r="J62">
+        <v>-0.1453305790964315</v>
+      </c>
+      <c r="K62">
+        <v>-0.03513606399058195</v>
+      </c>
+      <c r="L62">
+        <v>-0.0218893679950753</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.03984342902208052</v>
+        <v>-0.04176015591858043</v>
       </c>
       <c r="C63">
-        <v>-0.01328136304333606</v>
+        <v>0.01788914962039179</v>
       </c>
       <c r="D63">
-        <v>-0.006058337604292915</v>
+        <v>-0.01763315793824458</v>
       </c>
       <c r="E63">
-        <v>0.005615322406954528</v>
+        <v>-0.00853613514885051</v>
       </c>
       <c r="F63">
-        <v>-0.01091338057213929</v>
+        <v>-0.05949715574098678</v>
       </c>
       <c r="G63">
-        <v>-0.03376766667653072</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.001701312003152522</v>
+      </c>
+      <c r="H63">
+        <v>-0.001672307468794734</v>
+      </c>
+      <c r="I63">
+        <v>-0.01387581281997401</v>
+      </c>
+      <c r="J63">
+        <v>0.0002224016313441428</v>
+      </c>
+      <c r="K63">
+        <v>0.004317101881978913</v>
+      </c>
+      <c r="L63">
+        <v>0.04839639763972355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1037617698239799</v>
+        <v>-0.09757436498098616</v>
       </c>
       <c r="C64">
-        <v>-0.01324084119576725</v>
+        <v>0.04058605081332198</v>
       </c>
       <c r="D64">
-        <v>0.04522574336281828</v>
+        <v>0.04811393468064791</v>
       </c>
       <c r="E64">
-        <v>0.03787049085829748</v>
+        <v>0.01781708505237439</v>
       </c>
       <c r="F64">
-        <v>0.02623846883067795</v>
+        <v>-0.08043387150959938</v>
       </c>
       <c r="G64">
-        <v>-0.04559407481934066</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01690793852628888</v>
+      </c>
+      <c r="H64">
+        <v>0.02683132850030128</v>
+      </c>
+      <c r="I64">
+        <v>-0.1040881430210704</v>
+      </c>
+      <c r="J64">
+        <v>0.02821774053875673</v>
+      </c>
+      <c r="K64">
+        <v>0.06634122290066564</v>
+      </c>
+      <c r="L64">
+        <v>-0.02800318062639487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1216287866454359</v>
+        <v>-0.1171636475455635</v>
       </c>
       <c r="C65">
-        <v>-0.03582551076536218</v>
+        <v>0.0264568696632959</v>
       </c>
       <c r="D65">
-        <v>0.02157361568714626</v>
+        <v>-0.02387443401383628</v>
       </c>
       <c r="E65">
-        <v>0.05591424724792752</v>
+        <v>-0.008890506325251292</v>
       </c>
       <c r="F65">
-        <v>0.1987206885965352</v>
+        <v>0.03491940277358335</v>
       </c>
       <c r="G65">
-        <v>0.2283321781499821</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.09622120516788242</v>
+      </c>
+      <c r="H65">
+        <v>0.01184139578640217</v>
+      </c>
+      <c r="I65">
+        <v>-0.3357992555420421</v>
+      </c>
+      <c r="J65">
+        <v>-0.5182468593581389</v>
+      </c>
+      <c r="K65">
+        <v>0.07422085837863272</v>
+      </c>
+      <c r="L65">
+        <v>0.3348218528945665</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1581755137522814</v>
+        <v>-0.1420066585211239</v>
       </c>
       <c r="C66">
-        <v>-0.04937329901734942</v>
+        <v>0.1102929694517144</v>
       </c>
       <c r="D66">
-        <v>-0.01639824357839245</v>
+        <v>0.01130989381103386</v>
       </c>
       <c r="E66">
-        <v>0.01704553128302032</v>
+        <v>-0.1130755113616731</v>
       </c>
       <c r="F66">
-        <v>-0.02877603677930665</v>
+        <v>-0.141200248671955</v>
       </c>
       <c r="G66">
-        <v>-0.3308812670847748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1283729401289444</v>
+      </c>
+      <c r="H66">
+        <v>0.07496783964429632</v>
+      </c>
+      <c r="I66">
+        <v>0.01640848965021645</v>
+      </c>
+      <c r="J66">
+        <v>0.1823227046822221</v>
+      </c>
+      <c r="K66">
+        <v>0.1731112709633046</v>
+      </c>
+      <c r="L66">
+        <v>-0.02850897274371194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09993265911139332</v>
+        <v>-0.07154693307904919</v>
       </c>
       <c r="C67">
-        <v>-0.03908347067251583</v>
+        <v>0.04568377463630946</v>
       </c>
       <c r="D67">
-        <v>0.01610997175240923</v>
+        <v>0.009851180642985832</v>
       </c>
       <c r="E67">
-        <v>-0.01274712599335812</v>
+        <v>0.01777261942208109</v>
       </c>
       <c r="F67">
-        <v>-0.002896838656676773</v>
+        <v>0.02351965902223972</v>
       </c>
       <c r="G67">
-        <v>-0.0415251776793962</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.02164431260712942</v>
+      </c>
+      <c r="H67">
+        <v>-0.01770476092875089</v>
+      </c>
+      <c r="I67">
+        <v>-0.04627224424265227</v>
+      </c>
+      <c r="J67">
+        <v>0.02508202098603846</v>
+      </c>
+      <c r="K67">
+        <v>0.03506494694741376</v>
+      </c>
+      <c r="L67">
+        <v>-0.149186026961378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.04944103813081309</v>
+        <v>-0.1023918052582363</v>
       </c>
       <c r="C68">
-        <v>0.2959131061623375</v>
+        <v>-0.2793523447539781</v>
       </c>
       <c r="D68">
-        <v>0.03745196289196007</v>
+        <v>-0.01985194330129735</v>
       </c>
       <c r="E68">
-        <v>-0.008340589155485767</v>
+        <v>-0.01838073682876868</v>
       </c>
       <c r="F68">
-        <v>0.001625472479160639</v>
+        <v>-0.04438229143041599</v>
       </c>
       <c r="G68">
-        <v>0.01600651156316727</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01984360610834681</v>
+      </c>
+      <c r="H68">
+        <v>-0.01838066043422273</v>
+      </c>
+      <c r="I68">
+        <v>-0.009637962405612101</v>
+      </c>
+      <c r="J68">
+        <v>-0.02216847137223439</v>
+      </c>
+      <c r="K68">
+        <v>0.004916199868381213</v>
+      </c>
+      <c r="L68">
+        <v>0.04901364795124059</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.04615606644903898</v>
+        <v>-0.03976898948225027</v>
       </c>
       <c r="C69">
-        <v>-0.01735348402124392</v>
+        <v>0.002362804148462658</v>
       </c>
       <c r="D69">
-        <v>0.009484533726610086</v>
+        <v>0.0115267818021122</v>
       </c>
       <c r="E69">
-        <v>0.003980099066206911</v>
+        <v>0.005341275158912711</v>
       </c>
       <c r="F69">
-        <v>-0.01993848435484299</v>
+        <v>-0.01007217419694744</v>
       </c>
       <c r="G69">
-        <v>-0.03018646768461923</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0376522413510409</v>
+      </c>
+      <c r="H69">
+        <v>-0.006315114473043378</v>
+      </c>
+      <c r="I69">
+        <v>-0.01095311354621455</v>
+      </c>
+      <c r="J69">
+        <v>-0.0266101725376759</v>
+      </c>
+      <c r="K69">
+        <v>-0.009301894695683962</v>
+      </c>
+      <c r="L69">
+        <v>0.003749573820190416</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07615571231940527</v>
+        <v>-0.04914998462288107</v>
       </c>
       <c r="C70">
-        <v>-0.009832803984224214</v>
+        <v>0.01387561580370874</v>
       </c>
       <c r="D70">
-        <v>0.04249903948363817</v>
+        <v>0.03313857579715773</v>
       </c>
       <c r="E70">
-        <v>-0.02817553987525108</v>
+        <v>-0.02320121386130305</v>
       </c>
       <c r="F70">
-        <v>0.090057850593301</v>
+        <v>-0.02206643311886863</v>
       </c>
       <c r="G70">
-        <v>0.006624658006598325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.01358252721567729</v>
+      </c>
+      <c r="H70">
+        <v>-0.02496108720643568</v>
+      </c>
+      <c r="I70">
+        <v>-0.1412638549076081</v>
+      </c>
+      <c r="J70">
+        <v>-0.03164114945366735</v>
+      </c>
+      <c r="K70">
+        <v>-0.2095934540760547</v>
+      </c>
+      <c r="L70">
+        <v>-0.0884174692062608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.0573528066184753</v>
+        <v>-0.1176339857778645</v>
       </c>
       <c r="C71">
-        <v>0.2920709309097682</v>
+        <v>-0.2886664937893532</v>
       </c>
       <c r="D71">
-        <v>0.06107334708763176</v>
+        <v>0.009849985857957117</v>
       </c>
       <c r="E71">
-        <v>-0.008513199923902037</v>
+        <v>-0.005348489480996766</v>
       </c>
       <c r="F71">
-        <v>0.01180178725807278</v>
+        <v>-0.05381269453880332</v>
       </c>
       <c r="G71">
-        <v>-0.006242188514655096</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03913362102035459</v>
+      </c>
+      <c r="H71">
+        <v>0.01572920020703657</v>
+      </c>
+      <c r="I71">
+        <v>-0.01952197278799422</v>
+      </c>
+      <c r="J71">
+        <v>0.0017734830235139</v>
+      </c>
+      <c r="K71">
+        <v>0.02440021496906384</v>
+      </c>
+      <c r="L71">
+        <v>0.01990666805144116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1530540384795538</v>
+        <v>-0.1484105652965151</v>
       </c>
       <c r="C72">
-        <v>0.03945348758913731</v>
+        <v>0.01090024598292642</v>
       </c>
       <c r="D72">
-        <v>-0.2335755598129249</v>
+        <v>-0.09641105126492827</v>
       </c>
       <c r="E72">
-        <v>-0.03716115571362818</v>
+        <v>-0.02887110266447114</v>
       </c>
       <c r="F72">
-        <v>-0.0313703618250218</v>
+        <v>0.007079409065443252</v>
       </c>
       <c r="G72">
-        <v>-0.06931741058106405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04127529941326254</v>
+      </c>
+      <c r="H72">
+        <v>0.04701005746044941</v>
+      </c>
+      <c r="I72">
+        <v>0.02869594111004183</v>
+      </c>
+      <c r="J72">
+        <v>-0.1532588759888982</v>
+      </c>
+      <c r="K72">
+        <v>0.07139469893791471</v>
+      </c>
+      <c r="L72">
+        <v>-0.03072067430983854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2896876165841476</v>
+        <v>-0.2395619802283653</v>
       </c>
       <c r="C73">
-        <v>-0.180575126858835</v>
+        <v>0.1205815153434249</v>
       </c>
       <c r="D73">
-        <v>0.05697636274917504</v>
+        <v>0.1598153776624898</v>
       </c>
       <c r="E73">
-        <v>-0.1521779174072179</v>
+        <v>-0.09871320803241446</v>
       </c>
       <c r="F73">
-        <v>0.2725461788074859</v>
+        <v>0.4399495717210089</v>
       </c>
       <c r="G73">
-        <v>0.2309135799848393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.09609023450391686</v>
+      </c>
+      <c r="H73">
+        <v>0.1560742571142311</v>
+      </c>
+      <c r="I73">
+        <v>-0.1933535112957965</v>
+      </c>
+      <c r="J73">
+        <v>0.2461800608682209</v>
+      </c>
+      <c r="K73">
+        <v>0.2389778171401385</v>
+      </c>
+      <c r="L73">
+        <v>0.02357384122296416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09774594834059351</v>
+        <v>-0.1140099877145162</v>
       </c>
       <c r="C74">
-        <v>-0.03690028029563041</v>
+        <v>0.06754016596746908</v>
       </c>
       <c r="D74">
-        <v>-0.001932897361758778</v>
+        <v>0.006343516978568713</v>
       </c>
       <c r="E74">
-        <v>-0.01203859880138426</v>
+        <v>-0.006902709353256532</v>
       </c>
       <c r="F74">
-        <v>-0.09787302619863965</v>
+        <v>0.05469887380225828</v>
       </c>
       <c r="G74">
-        <v>0.03523332733493904</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.1329787024235649</v>
+      </c>
+      <c r="H74">
+        <v>-0.004379575778588413</v>
+      </c>
+      <c r="I74">
+        <v>0.09301584697802007</v>
+      </c>
+      <c r="J74">
+        <v>-0.0616876448120994</v>
+      </c>
+      <c r="K74">
+        <v>-0.008422412443278895</v>
+      </c>
+      <c r="L74">
+        <v>0.0123726042388353</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09518873409807059</v>
+        <v>-0.1056811735098082</v>
       </c>
       <c r="C75">
-        <v>-0.01750958774850152</v>
+        <v>0.04828056980595835</v>
       </c>
       <c r="D75">
-        <v>-0.02153275370258629</v>
+        <v>2.536287158423728e-05</v>
       </c>
       <c r="E75">
-        <v>-0.03752245978264919</v>
+        <v>-0.008624198205669828</v>
       </c>
       <c r="F75">
-        <v>-0.1170429152747063</v>
+        <v>0.03977076613841776</v>
       </c>
       <c r="G75">
-        <v>0.06813449280963166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.06195729496274684</v>
+      </c>
+      <c r="H75">
+        <v>-0.04691435979702804</v>
+      </c>
+      <c r="I75">
+        <v>0.124632769649745</v>
+      </c>
+      <c r="J75">
+        <v>-0.06194908835186066</v>
+      </c>
+      <c r="K75">
+        <v>-0.01755202075908274</v>
+      </c>
+      <c r="L75">
+        <v>0.006436871898029603</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1373498407844947</v>
+        <v>-0.06480694857463837</v>
       </c>
       <c r="C76">
-        <v>-0.03366053856974081</v>
+        <v>0.03256303970796075</v>
       </c>
       <c r="D76">
-        <v>0.006520667168256866</v>
+        <v>0.02618268908071408</v>
       </c>
       <c r="E76">
-        <v>0.0070542702374269</v>
+        <v>0.004911532850878799</v>
       </c>
       <c r="F76">
-        <v>-0.2303994234088506</v>
+        <v>0.07353404781765324</v>
       </c>
       <c r="G76">
-        <v>0.0989242181739135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05693253417091499</v>
+      </c>
+      <c r="H76">
+        <v>-0.07668402067767588</v>
+      </c>
+      <c r="I76">
+        <v>0.1298619258359609</v>
+      </c>
+      <c r="J76">
+        <v>-0.04742743571925523</v>
+      </c>
+      <c r="K76">
+        <v>0.02254822537764052</v>
+      </c>
+      <c r="L76">
+        <v>-0.0102280419747334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.08702691857160129</v>
+        <v>-0.07263541767049404</v>
       </c>
       <c r="C77">
-        <v>-0.0005665407373268207</v>
+        <v>0.03012388090591038</v>
       </c>
       <c r="D77">
-        <v>0.04861489079505283</v>
+        <v>0.03819050111181729</v>
       </c>
       <c r="E77">
-        <v>0.0679958109772817</v>
+        <v>-7.118180947825546e-05</v>
       </c>
       <c r="F77">
-        <v>0.1363804441031074</v>
+        <v>-0.2270216442085521</v>
       </c>
       <c r="G77">
-        <v>-0.2493692907768544</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.05983461251600995</v>
+      </c>
+      <c r="H77">
+        <v>-0.008002134748653356</v>
+      </c>
+      <c r="I77">
+        <v>-0.2246661224360126</v>
+      </c>
+      <c r="J77">
+        <v>-0.08175561945330122</v>
+      </c>
+      <c r="K77">
+        <v>0.1631158782735877</v>
+      </c>
+      <c r="L77">
+        <v>-0.571500052545441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.2065731527655669</v>
+        <v>-0.1582624680624399</v>
       </c>
       <c r="C78">
-        <v>-0.06197278260557439</v>
+        <v>0.1052986146251629</v>
       </c>
       <c r="D78">
-        <v>0.06291360733412654</v>
+        <v>-0.05036464650633419</v>
       </c>
       <c r="E78">
-        <v>0.182618078729066</v>
+        <v>0.1879721901017295</v>
       </c>
       <c r="F78">
-        <v>0.01657500015072504</v>
+        <v>-0.1686614390331599</v>
       </c>
       <c r="G78">
-        <v>-0.04637854816735384</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.6061240883689305</v>
+      </c>
+      <c r="H78">
+        <v>-0.5677556042092385</v>
+      </c>
+      <c r="I78">
+        <v>0.2520861746761296</v>
+      </c>
+      <c r="J78">
+        <v>0.05375150050256541</v>
+      </c>
+      <c r="K78">
+        <v>0.1963705892334548</v>
+      </c>
+      <c r="L78">
+        <v>0.05712294565233083</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1373930483842912</v>
+        <v>-0.1333388985841647</v>
       </c>
       <c r="C79">
-        <v>-0.01547420413469328</v>
+        <v>0.04742218116032865</v>
       </c>
       <c r="D79">
-        <v>-0.006222867716134218</v>
+        <v>0.01605359080704513</v>
       </c>
       <c r="E79">
-        <v>-0.02335427598669676</v>
+        <v>0.005159995991175767</v>
       </c>
       <c r="F79">
-        <v>-0.1666235361237407</v>
+        <v>0.01431533814773215</v>
       </c>
       <c r="G79">
-        <v>-0.009068384474671832</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.1098586281223189</v>
+      </c>
+      <c r="H79">
+        <v>-0.008418318591783592</v>
+      </c>
+      <c r="I79">
+        <v>0.1366028183353584</v>
+      </c>
+      <c r="J79">
+        <v>-0.1094085077396816</v>
+      </c>
+      <c r="K79">
+        <v>0.00434882297925184</v>
+      </c>
+      <c r="L79">
+        <v>-0.007279578228208527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.0358341045597811</v>
+        <v>-0.06548081891226709</v>
       </c>
       <c r="C80">
-        <v>-0.012425188912787</v>
+        <v>0.04442095746582075</v>
       </c>
       <c r="D80">
-        <v>0.008196279209903765</v>
+        <v>0.0295992619227962</v>
       </c>
       <c r="E80">
-        <v>-0.04591406544580513</v>
+        <v>-0.06868928158639133</v>
       </c>
       <c r="F80">
-        <v>0.0300711950845239</v>
+        <v>-0.03666654002093023</v>
       </c>
       <c r="G80">
-        <v>-0.0451761655533196</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.02528763283171147</v>
+      </c>
+      <c r="H80">
+        <v>-0.097836750623707</v>
+      </c>
+      <c r="I80">
+        <v>-0.0369297260467174</v>
+      </c>
+      <c r="J80">
+        <v>0.05385405290722888</v>
+      </c>
+      <c r="K80">
+        <v>-0.05560312161009453</v>
+      </c>
+      <c r="L80">
+        <v>0.1358309164391946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1102124277111532</v>
+        <v>-0.1302404833669329</v>
       </c>
       <c r="C81">
-        <v>-0.01367718824097648</v>
+        <v>0.05577297378696088</v>
       </c>
       <c r="D81">
-        <v>0.009303629045731499</v>
+        <v>0.02073678828559725</v>
       </c>
       <c r="E81">
-        <v>-0.02179744593420333</v>
+        <v>0.003924412633117018</v>
       </c>
       <c r="F81">
-        <v>-0.143739754203336</v>
+        <v>0.001234716372065765</v>
       </c>
       <c r="G81">
-        <v>0.03431537524174127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08003327300837887</v>
+      </c>
+      <c r="H81">
+        <v>0.001193147795663002</v>
+      </c>
+      <c r="I81">
+        <v>0.1314384716316748</v>
+      </c>
+      <c r="J81">
+        <v>-0.05654850465185093</v>
+      </c>
+      <c r="K81">
+        <v>-0.02935852675719392</v>
+      </c>
+      <c r="L81">
+        <v>-0.00124616032331954</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1119619782866777</v>
+        <v>-0.1391692658600224</v>
       </c>
       <c r="C82">
-        <v>-0.02829896272194712</v>
+        <v>0.05346808951849299</v>
       </c>
       <c r="D82">
-        <v>0.04966945175633852</v>
+        <v>0.04600864451600123</v>
       </c>
       <c r="E82">
-        <v>-0.05370386043433738</v>
+        <v>-0.01630347375236451</v>
       </c>
       <c r="F82">
-        <v>-0.2430644335143892</v>
+        <v>0.04081102927188309</v>
       </c>
       <c r="G82">
-        <v>-0.01584952493925674</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.1769101855038868</v>
+      </c>
+      <c r="H82">
+        <v>-0.03281449512430729</v>
+      </c>
+      <c r="I82">
+        <v>0.2254777200913609</v>
+      </c>
+      <c r="J82">
+        <v>-0.02753608565700102</v>
+      </c>
+      <c r="K82">
+        <v>-0.07857729853359785</v>
+      </c>
+      <c r="L82">
+        <v>-0.0457685457030119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.1027756160234137</v>
+        <v>-0.09162002882459749</v>
       </c>
       <c r="C83">
-        <v>-0.06496886610677406</v>
+        <v>0.1045117009533959</v>
       </c>
       <c r="D83">
-        <v>0.06029062042002207</v>
+        <v>0.01868476152701981</v>
       </c>
       <c r="E83">
-        <v>-0.01097528913473149</v>
+        <v>-0.003810979856841354</v>
       </c>
       <c r="F83">
-        <v>0.07328770845135756</v>
+        <v>-0.07294464258725163</v>
       </c>
       <c r="G83">
-        <v>-0.1083207890964885</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.03187583635572405</v>
+      </c>
+      <c r="H83">
+        <v>-0.09188869618265461</v>
+      </c>
+      <c r="I83">
+        <v>-0.1317351785458954</v>
+      </c>
+      <c r="J83">
+        <v>-0.02328855994888351</v>
+      </c>
+      <c r="K83">
+        <v>-0.07403795014037769</v>
+      </c>
+      <c r="L83">
+        <v>-0.063044847059746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05535610145263624</v>
+        <v>-0.05420288533885159</v>
       </c>
       <c r="C84">
-        <v>-0.02518159945612335</v>
+        <v>-0.0326488664182207</v>
       </c>
       <c r="D84">
-        <v>-0.04405955345416622</v>
+        <v>0.006683319700394708</v>
       </c>
       <c r="E84">
-        <v>0.03808456496325809</v>
+        <v>-0.02029217099962024</v>
       </c>
       <c r="F84">
-        <v>-0.02463190293825775</v>
+        <v>-0.007299174563970675</v>
       </c>
       <c r="G84">
-        <v>0.01995500693510723</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.1718853652449415</v>
+      </c>
+      <c r="H84">
+        <v>0.09625274170710761</v>
+      </c>
+      <c r="I84">
+        <v>0.1386042512724069</v>
+      </c>
+      <c r="J84">
+        <v>0.3183229610445333</v>
+      </c>
+      <c r="K84">
+        <v>-0.08452904415238457</v>
+      </c>
+      <c r="L84">
+        <v>0.1727331420824185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1003608077968046</v>
+        <v>-0.116835779946605</v>
       </c>
       <c r="C85">
-        <v>-0.0263969123700905</v>
+        <v>0.04337767729480711</v>
       </c>
       <c r="D85">
-        <v>0.01940375393910968</v>
+        <v>0.04605112472698987</v>
       </c>
       <c r="E85">
-        <v>-0.02255985475308937</v>
+        <v>-0.003479518180394532</v>
       </c>
       <c r="F85">
-        <v>-0.1947481612001211</v>
+        <v>0.01233471192519185</v>
       </c>
       <c r="G85">
-        <v>-0.005638887376203969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1162530210950756</v>
+      </c>
+      <c r="H85">
+        <v>-0.0218045030602924</v>
+      </c>
+      <c r="I85">
+        <v>0.14740082754831</v>
+      </c>
+      <c r="J85">
+        <v>-0.09910685110249412</v>
+      </c>
+      <c r="K85">
+        <v>0.003377909518807596</v>
+      </c>
+      <c r="L85">
+        <v>-0.01395513365309808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06265944778568552</v>
+        <v>-0.07998977223517079</v>
       </c>
       <c r="C86">
-        <v>-0.02725052687396496</v>
+        <v>0.01966165811050498</v>
       </c>
       <c r="D86">
-        <v>0.04502880744516175</v>
+        <v>0.08842023893085305</v>
       </c>
       <c r="E86">
-        <v>0.04759994796259129</v>
+        <v>0.0362782208529822</v>
       </c>
       <c r="F86">
-        <v>0.04654500420174732</v>
+        <v>-0.1080109461714033</v>
       </c>
       <c r="G86">
-        <v>-0.1231363128483719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.4373392005174098</v>
+      </c>
+      <c r="H86">
+        <v>0.6052914456477138</v>
+      </c>
+      <c r="I86">
+        <v>0.3137416483966173</v>
+      </c>
+      <c r="J86">
+        <v>-0.1252249739086398</v>
+      </c>
+      <c r="K86">
+        <v>-0.2458813084195788</v>
+      </c>
+      <c r="L86">
+        <v>-0.02481237740527513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1023412271369201</v>
+        <v>-0.1122416472626114</v>
       </c>
       <c r="C87">
-        <v>-0.05398576412751337</v>
+        <v>0.09583172274294095</v>
       </c>
       <c r="D87">
-        <v>0.02123864041151022</v>
+        <v>0.03792864996579961</v>
       </c>
       <c r="E87">
-        <v>0.04503781565155763</v>
+        <v>0.03791974152990532</v>
       </c>
       <c r="F87">
-        <v>0.0194223809708727</v>
+        <v>-0.1218801455415913</v>
       </c>
       <c r="G87">
-        <v>-0.109050786364782</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04221047352051474</v>
+      </c>
+      <c r="H87">
+        <v>0.03269764189523201</v>
+      </c>
+      <c r="I87">
+        <v>-0.1459700583298368</v>
+      </c>
+      <c r="J87">
+        <v>-0.0597442597789191</v>
+      </c>
+      <c r="K87">
+        <v>-0.09258221915379132</v>
+      </c>
+      <c r="L87">
+        <v>-0.2786692885137251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06623118418151645</v>
+        <v>-0.0573851549633651</v>
       </c>
       <c r="C88">
-        <v>-0.0318877329751068</v>
+        <v>0.04836184542508654</v>
       </c>
       <c r="D88">
-        <v>0.02527610678316913</v>
+        <v>0.02964755054679772</v>
       </c>
       <c r="E88">
-        <v>0.01394497711971348</v>
+        <v>-0.02672378620187594</v>
       </c>
       <c r="F88">
-        <v>0.006823175353323325</v>
+        <v>-0.03245500352943339</v>
       </c>
       <c r="G88">
-        <v>-0.06565444459099051</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04146631017027867</v>
+      </c>
+      <c r="H88">
+        <v>0.00111852926205677</v>
+      </c>
+      <c r="I88">
+        <v>-0.02611993892678954</v>
+      </c>
+      <c r="J88">
+        <v>0.02809081607083042</v>
+      </c>
+      <c r="K88">
+        <v>0.02171553193725433</v>
+      </c>
+      <c r="L88">
+        <v>0.05529600236234801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1060001966932664</v>
+        <v>-0.1744840404723788</v>
       </c>
       <c r="C89">
-        <v>0.3631835099935564</v>
+        <v>-0.3727124806401105</v>
       </c>
       <c r="D89">
-        <v>0.1165997369203311</v>
+        <v>0.035913850246487</v>
       </c>
       <c r="E89">
-        <v>0.0213486085914537</v>
+        <v>0.04503796343268697</v>
       </c>
       <c r="F89">
-        <v>0.07949602656596111</v>
+        <v>-0.02913602990270603</v>
       </c>
       <c r="G89">
-        <v>-0.01318440018897301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01156249216395901</v>
+      </c>
+      <c r="H89">
+        <v>-0.04061056779682158</v>
+      </c>
+      <c r="I89">
+        <v>-0.05832128272181264</v>
+      </c>
+      <c r="J89">
+        <v>0.06918485255178308</v>
+      </c>
+      <c r="K89">
+        <v>-0.05356525340761387</v>
+      </c>
+      <c r="L89">
+        <v>0.01206784746022535</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08635820318602912</v>
+        <v>-0.1352876139643533</v>
       </c>
       <c r="C90">
-        <v>0.2876124477583041</v>
+        <v>-0.2762334203784739</v>
       </c>
       <c r="D90">
-        <v>0.05685110482874229</v>
+        <v>0.01465726913551919</v>
       </c>
       <c r="E90">
-        <v>0.0490345205700924</v>
+        <v>0.0005524623532184512</v>
       </c>
       <c r="F90">
-        <v>0.04140447927664641</v>
+        <v>-0.04382610989758545</v>
       </c>
       <c r="G90">
-        <v>-0.0648579772940622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01188244066705403</v>
+      </c>
+      <c r="H90">
+        <v>0.04801030662476408</v>
+      </c>
+      <c r="I90">
+        <v>-0.03834373174189035</v>
+      </c>
+      <c r="J90">
+        <v>0.04067022222451347</v>
+      </c>
+      <c r="K90">
+        <v>0.04015855382693338</v>
+      </c>
+      <c r="L90">
+        <v>0.005886515513266168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08522848302774541</v>
+        <v>-0.0811258795371004</v>
       </c>
       <c r="C91">
-        <v>-0.02557028889083861</v>
+        <v>0.03848153804471979</v>
       </c>
       <c r="D91">
-        <v>-0.0003698223066690464</v>
+        <v>0.02487281940822836</v>
       </c>
       <c r="E91">
-        <v>-0.0214544505718376</v>
+        <v>0.006320937556396683</v>
       </c>
       <c r="F91">
-        <v>-0.07759792175437959</v>
+        <v>0.03223570848377016</v>
       </c>
       <c r="G91">
-        <v>0.0634580035954546</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.06124846842874346</v>
+      </c>
+      <c r="H91">
+        <v>-0.01259863126757529</v>
+      </c>
+      <c r="I91">
+        <v>0.09080849655195974</v>
+      </c>
+      <c r="J91">
+        <v>-0.04585058052201619</v>
+      </c>
+      <c r="K91">
+        <v>-0.007381574791683403</v>
+      </c>
+      <c r="L91">
+        <v>0.01134195725102019</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07874143874066454</v>
+        <v>-0.1462191628540766</v>
       </c>
       <c r="C92">
-        <v>0.3404595388551167</v>
+        <v>-0.3285775943640338</v>
       </c>
       <c r="D92">
-        <v>0.07379500767648915</v>
+        <v>0.007717948033382203</v>
       </c>
       <c r="E92">
-        <v>0.01892610322109098</v>
+        <v>0.04290317340070399</v>
       </c>
       <c r="F92">
-        <v>0.04068334087487074</v>
+        <v>-0.06100633473127295</v>
       </c>
       <c r="G92">
-        <v>0.06702609244793312</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02153349839055844</v>
+      </c>
+      <c r="H92">
+        <v>-0.04888838612294719</v>
+      </c>
+      <c r="I92">
+        <v>0.008425620716014532</v>
+      </c>
+      <c r="J92">
+        <v>0.03456414406696925</v>
+      </c>
+      <c r="K92">
+        <v>0.01195288853263354</v>
+      </c>
+      <c r="L92">
+        <v>0.02535207189101579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.09593032031344176</v>
+        <v>-0.1391318900689784</v>
       </c>
       <c r="C93">
-        <v>0.2908081107600211</v>
+        <v>-0.3109944806550184</v>
       </c>
       <c r="D93">
-        <v>0.05640231373564793</v>
+        <v>0.02657784220423824</v>
       </c>
       <c r="E93">
-        <v>0.0114643174348427</v>
+        <v>-0.02625864023529949</v>
       </c>
       <c r="F93">
-        <v>0.02120470603570501</v>
+        <v>-0.01643222107348527</v>
       </c>
       <c r="G93">
-        <v>0.009432864951830639</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.01067005782024572</v>
+      </c>
+      <c r="H93">
+        <v>0.04838725745051471</v>
+      </c>
+      <c r="I93">
+        <v>-0.01327970450430457</v>
+      </c>
+      <c r="J93">
+        <v>-0.0008519603304527942</v>
+      </c>
+      <c r="K93">
+        <v>-0.02111504033003713</v>
+      </c>
+      <c r="L93">
+        <v>0.01446656362104836</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.09532256785371016</v>
+        <v>-0.1218701911673248</v>
       </c>
       <c r="C94">
-        <v>-0.0460733620992612</v>
+        <v>0.05603777211275731</v>
       </c>
       <c r="D94">
-        <v>-0.01242007023479036</v>
+        <v>0.01298653846365113</v>
       </c>
       <c r="E94">
-        <v>-0.004157726977476207</v>
+        <v>0.01225375282635175</v>
       </c>
       <c r="F94">
-        <v>-0.1417503575958771</v>
+        <v>0.05360660410686473</v>
       </c>
       <c r="G94">
-        <v>0.04442198256522564</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.09045343862402733</v>
+      </c>
+      <c r="H94">
+        <v>-0.02254360062027859</v>
+      </c>
+      <c r="I94">
+        <v>0.1272596595706394</v>
+      </c>
+      <c r="J94">
+        <v>-0.03271432789696446</v>
+      </c>
+      <c r="K94">
+        <v>0.009877430102945454</v>
+      </c>
+      <c r="L94">
+        <v>0.05226641915728084</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1326129887503721</v>
+        <v>-0.1250784226646451</v>
       </c>
       <c r="C95">
-        <v>-0.06933249046815598</v>
+        <v>0.06993474469981348</v>
       </c>
       <c r="D95">
-        <v>0.06269528563157237</v>
+        <v>0.04607684409646205</v>
       </c>
       <c r="E95">
-        <v>0.01740851001125587</v>
+        <v>0.02466817687806231</v>
       </c>
       <c r="F95">
-        <v>0.05489334043185384</v>
+        <v>-0.07043445338771934</v>
       </c>
       <c r="G95">
-        <v>-0.09693378350794113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1262766327137172</v>
+      </c>
+      <c r="H95">
+        <v>0.08030836712290063</v>
+      </c>
+      <c r="I95">
+        <v>-0.1035920004578881</v>
+      </c>
+      <c r="J95">
+        <v>0.04571931186094425</v>
+      </c>
+      <c r="K95">
+        <v>-0.2229381267995919</v>
+      </c>
+      <c r="L95">
+        <v>0.1031900728407488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.005886021226148519</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.003745853784425995</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0001034298010129252</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.001990704235976878</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005858336845138517</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.02308940635781372</v>
+      </c>
+      <c r="H96">
+        <v>-0.01493666929072675</v>
+      </c>
+      <c r="I96">
+        <v>-0.009877450148121039</v>
+      </c>
+      <c r="J96">
+        <v>-0.01180139982259474</v>
+      </c>
+      <c r="K96">
+        <v>0.02340741898779448</v>
+      </c>
+      <c r="L96">
+        <v>-0.01659617409487771</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2112051122240249</v>
+        <v>-0.1911218067599623</v>
       </c>
       <c r="C97">
-        <v>0.15105364537027</v>
+        <v>0.03876724202100096</v>
       </c>
       <c r="D97">
-        <v>-0.8982545226126399</v>
+        <v>-0.9341321080711689</v>
       </c>
       <c r="E97">
-        <v>-0.008752025449848192</v>
+        <v>-0.1609766714781731</v>
       </c>
       <c r="F97">
-        <v>0.08867706982424603</v>
+        <v>0.06377551264383835</v>
       </c>
       <c r="G97">
-        <v>-0.02515085167779006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.04671069352872342</v>
+      </c>
+      <c r="H97">
+        <v>0.104755779151096</v>
+      </c>
+      <c r="I97">
+        <v>-5.891874339989702e-06</v>
+      </c>
+      <c r="J97">
+        <v>0.03454133380425693</v>
+      </c>
+      <c r="K97">
+        <v>-0.03598058002989353</v>
+      </c>
+      <c r="L97">
+        <v>-0.05892628102133665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3057930075990545</v>
+        <v>-0.2633729146556392</v>
       </c>
       <c r="C98">
-        <v>-0.09586900956917696</v>
+        <v>0.08810597554445261</v>
       </c>
       <c r="D98">
-        <v>0.07813130979075839</v>
+        <v>0.05105248960634388</v>
       </c>
       <c r="E98">
-        <v>-0.2158860047335632</v>
+        <v>0.01333895303477901</v>
       </c>
       <c r="F98">
-        <v>0.2022285458712597</v>
+        <v>0.3946531726052835</v>
       </c>
       <c r="G98">
-        <v>0.2817179673358048</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08551366967821265</v>
+      </c>
+      <c r="H98">
+        <v>-0.269599460806923</v>
+      </c>
+      <c r="I98">
+        <v>-0.1855343312803217</v>
+      </c>
+      <c r="J98">
+        <v>0.1620732914128629</v>
+      </c>
+      <c r="K98">
+        <v>-0.5071010331927787</v>
+      </c>
+      <c r="L98">
+        <v>-0.1701148364052168</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.08206241521682603</v>
+        <v>-0.06260777020412309</v>
       </c>
       <c r="C99">
-        <v>-0.03805475482041556</v>
+        <v>0.02878509335511831</v>
       </c>
       <c r="D99">
-        <v>0.005357960055994957</v>
+        <v>0.01161140455689103</v>
       </c>
       <c r="E99">
-        <v>-0.01374536328985352</v>
+        <v>0.006918179929472391</v>
       </c>
       <c r="F99">
-        <v>-0.02050397580903113</v>
+        <v>0.0129864024303372</v>
       </c>
       <c r="G99">
-        <v>-0.02360862932804184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.005945805320545534</v>
+      </c>
+      <c r="H99">
+        <v>0.001508167460853346</v>
+      </c>
+      <c r="I99">
+        <v>0.01547320169863998</v>
+      </c>
+      <c r="J99">
+        <v>-0.001945602331739253</v>
+      </c>
+      <c r="K99">
+        <v>0.05928603033633403</v>
+      </c>
+      <c r="L99">
+        <v>-0.00896177148368831</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01955120089610833</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.02131956710194178</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.04411648085131501</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.04038937669851928</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.02966039300949251</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.144750398318002</v>
+      </c>
+      <c r="H100">
+        <v>-0.1403262521201867</v>
+      </c>
+      <c r="I100">
+        <v>-0.04342464123779689</v>
+      </c>
+      <c r="J100">
+        <v>0.1200200680222543</v>
+      </c>
+      <c r="K100">
+        <v>-0.2190144107812814</v>
+      </c>
+      <c r="L100">
+        <v>0.04713117704897854</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.054155576435995</v>
+        <v>-0.04245504118728576</v>
       </c>
       <c r="C101">
-        <v>-0.002899613150785372</v>
+        <v>0.02494676010913878</v>
       </c>
       <c r="D101">
-        <v>0.01915238741866672</v>
+        <v>0.02482630305275153</v>
       </c>
       <c r="E101">
-        <v>0.0391753294163656</v>
+        <v>-0.0006842114118595444</v>
       </c>
       <c r="F101">
-        <v>-0.02573110555289425</v>
+        <v>-0.06077464337087869</v>
       </c>
       <c r="G101">
-        <v>-0.02067947673356313</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0347503142286916</v>
+      </c>
+      <c r="H101">
+        <v>-4.833230220366265e-05</v>
+      </c>
+      <c r="I101">
+        <v>-0.002010055584641353</v>
+      </c>
+      <c r="J101">
+        <v>-0.03166381718298227</v>
+      </c>
+      <c r="K101">
+        <v>-0.06911399641212677</v>
+      </c>
+      <c r="L101">
+        <v>0.04224215630246099</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
